--- a/thesis-tex/excels/references.xlsx
+++ b/thesis-tex/excels/references.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6557BEC2-DFA5-42AA-AF68-2E68DC7AC770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDF316B-E425-42F7-BD50-A2D92E426707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{708375FB-6962-4B20-A84D-3D0BF229F98B}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +341,7 @@
     <t>(four team all pay auction model)</t>
   </si>
   <si>
-    <t>https://www.desmos.com/calculator/sr17m1a2yz</t>
+    <t>https://www.cs.kent.edu/~parallel/papers/sort.pdf</t>
   </si>
 </sst>
 </file>
@@ -703,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C99330B-41D4-434B-87B1-F3F6E5AC9A2D}">
-  <dimension ref="B4:H35"/>
+  <dimension ref="B4:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1199,8 +1198,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
         <v>101</v>
       </c>
     </row>

--- a/thesis-tex/excels/references.xlsx
+++ b/thesis-tex/excels/references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDF316B-E425-42F7-BD50-A2D92E426707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F9CFB8-E66A-4578-BD11-608B7D6C2D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{708375FB-6962-4B20-A84D-3D0BF229F98B}"/>
   </bookViews>

--- a/thesis-tex/excels/references.xlsx
+++ b/thesis-tex/excels/references.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F9CFB8-E66A-4578-BD11-608B7D6C2D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F36739-1C26-46DB-865D-CDE630767EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{708375FB-6962-4B20-A84D-3D0BF229F98B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{708375FB-6962-4B20-A84D-3D0BF229F98B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Brackets" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="109">
   <si>
     <t>Title</t>
   </si>
@@ -342,13 +343,34 @@
   </si>
   <si>
     <t>https://www.cs.kent.edu/~parallel/papers/sort.pdf</t>
+  </si>
+  <si>
+    <t>https://content.ebscohost.com/cds/retrieve?content=AQICAHiylJ_bvOB56hI8UzTN6Ryruh7a0kiIBN_ANwtaWYjmxwHwsIiEe0NFHrNsgcDym3bRAAAA2TCB1gYJKoZIhvcNAQcGoIHIMIHFAgEAMIG_BgkqhkiG9w0BBwEwHgYJYIZIAWUDBAEuMBEEDEMlfA8REXhTaVFDiQIBEICBkXsvBLQm6pP2fOulN5YRbMfhZKwdIBVoILPxIAHhsm2VSPAqyoutmx88vT_uLwaPz48LJoeGx8H7uUCbDwZgb0RdIJpptrfXSBqoz8pQi_YctYjULtqzO0dim_N9O2ldp7roFaMH8Ju9cuJ7jm-EIKOogvQr5NC2Nm9F4b_9ZsX4BZCYUF6d-LzpI_2wVOGS4gg=</t>
+  </si>
+  <si>
+    <t>Reseeded Brackets</t>
+  </si>
+  <si>
+    <t>Reseeding</t>
+  </si>
+  <si>
+    <t>Monotonic/Ordered, 4 is ordered</t>
+  </si>
+  <si>
+    <t>Monotonic/Ordered, 42 is not</t>
+  </si>
+  <si>
+    <t>Monotonic/Ordered, random conjecture</t>
+  </si>
+  <si>
+    <t>Randomization</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +382,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -382,14 +412,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -704,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C99330B-41D4-434B-87B1-F3F6E5AC9A2D}">
   <dimension ref="B4:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -815,7 +849,7 @@
       <c r="D8">
         <v>1984</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
@@ -1208,7 +1242,262 @@
     <sortCondition descending="1" ref="G5:G22"/>
     <sortCondition ref="F5:F22"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{E2C12765-149D-4A40-B519-F9EFFFD5EB3F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206B347E-4D27-45CE-9DA5-563BCD91651E}">
+  <dimension ref="B4:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>2011</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>1963</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7">
+        <v>1978</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>1984</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>1991</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>1991</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13">
+        <v>1982</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15">
+        <v>1978</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17">
+        <v>1981</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/thesis-tex/excels/references.xlsx
+++ b/thesis-tex/excels/references.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F36739-1C26-46DB-865D-CDE630767EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E77D6E-766F-46B2-958B-FBB090A43072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{708375FB-6962-4B20-A84D-3D0BF229F98B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{708375FB-6962-4B20-A84D-3D0BF229F98B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="110">
   <si>
     <t>Title</t>
   </si>
@@ -364,13 +364,37 @@
   </si>
   <si>
     <t>Randomization</t>
+  </si>
+  <si>
+    <r>
+      <t>Hwang, R. K., &amp; Hsuan, F. (1980). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Stronger players win more knockout tournaments in average. Communications in Statistics - Theory and Methods, 9(1), 107–113.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> doi:10.1080/03610928008827863 </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,6 +418,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -416,11 +453,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -736,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C99330B-41D4-434B-87B1-F3F6E5AC9A2D}">
-  <dimension ref="B4:H33"/>
+  <dimension ref="B4:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:H14"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1235,6 +1273,11 @@
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1254,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206B347E-4D27-45CE-9DA5-563BCD91651E}">
   <dimension ref="B4:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/thesis-tex/excels/references.xlsx
+++ b/thesis-tex/excels/references.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E77D6E-766F-46B2-958B-FBB090A43072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AA378C-F6A5-498A-8F08-8BAA922B3830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{708375FB-6962-4B20-A84D-3D0BF229F98B}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Brackets" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -453,11 +454,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C99330B-41D4-434B-87B1-F3F6E5AC9A2D}">
   <dimension ref="B4:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1276,7 +1276,7 @@
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       <c r="E8">
         <v>1984</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" t="s">
         <v>102</v>
       </c>
       <c r="G8" t="s">
